--- a/Documents/UDP Packet Structure.xlsx
+++ b/Documents/UDP Packet Structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University Work\3rd Year\3rd Year Project\University-3rd-Year-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University Work\3rd Year\3rd Year Project\University-3rd-Year-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5541675B-A7C7-4B62-BD07-243F05D24B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AFA82C-7741-4806-B462-45222CC9E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{1ADFE77D-9655-4730-AA72-896D6228A30D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1ADFE77D-9655-4730-AA72-896D6228A30D}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet Information" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Time difference (prev cycle)</t>
   </si>
   <si>
-    <t>Message type</t>
-  </si>
-  <si>
     <t>Flag Structure (8 bit)</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>02 B5 00 0E 00 00 00 00 01 23 45 67 89 AB CD EF 00 00 00 00 00 00 00 01 00 00 01 97 2B C5 80 00 00 00 00 64 01 01 00 01 01 00 0A 00 52 CF 22 41 01 02 03 04 05 06 07 08 11 22 33 44 55 66 5B 03</t>
+  </si>
+  <si>
+    <t>ESP Type</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,7 +460,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725F1211-7261-4A38-8C76-B1DDCC657488}">
   <dimension ref="C1:N76"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -826,18 +826,18 @@
     </row>
     <row r="2" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="6"/>
       <c r="G2" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="4"/>
@@ -850,35 +850,35 @@
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="3:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -892,21 +892,21 @@
         <v>2</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="10">
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -921,21 +921,21 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="10">
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -943,28 +943,28 @@
     </row>
     <row r="7" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="10">
-        <f>SUM(C6+D6)</f>
+        <f t="shared" ref="C7:C20" si="1">SUM(C6+D6)</f>
         <v>4</v>
       </c>
       <c r="D7" s="10">
         <v>4</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="10">
         <v>2</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -972,28 +972,28 @@
     </row>
     <row r="8" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="10">
-        <f>SUM(C7+D7)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D8" s="10">
         <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1001,24 +1001,24 @@
     </row>
     <row r="9" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="10">
-        <f>SUM(C8+D8)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D9" s="10">
         <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="10">
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1028,28 +1028,28 @@
     </row>
     <row r="10" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
-        <f>SUM(C9+D9)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D10" s="10">
         <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="10">
         <v>5</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="11" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="10">
-        <f>SUM(C10+D10)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D11" s="10">
@@ -1071,14 +1071,14 @@
         <v>6</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1086,24 +1086,24 @@
     </row>
     <row r="12" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="10">
-        <f>SUM(C11+D11)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="10">
         <v>7</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1111,14 +1111,14 @@
     </row>
     <row r="13" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="10">
-        <f>SUM(C12+D12)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1130,14 +1130,14 @@
     </row>
     <row r="14" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="10">
-        <f>SUM(C13+D13)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="4"/>
       <c r="H14" s="4"/>
@@ -1148,60 +1148,60 @@
     </row>
     <row r="15" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="10">
-        <f>SUM(C14+D14)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="10">
-        <f>SUM(C15+D15)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="10">
-        <f>SUM(C16+D16)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4"/>
       <c r="H17" s="4"/>
@@ -1209,14 +1209,14 @@
     </row>
     <row r="18" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="10">
-        <f>SUM(C17+D17)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="4"/>
       <c r="H18" s="4"/>
@@ -1224,14 +1224,14 @@
     </row>
     <row r="19" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="10">
-        <f>SUM(C18+D18)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="4"/>
       <c r="H19" s="4"/>
@@ -1239,14 +1239,14 @@
     </row>
     <row r="20" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="10">
-        <f>SUM(C19+D19)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D20" s="10">
         <v>4</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="4"/>
       <c r="H20" s="4"/>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="21" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="10">
-        <f t="shared" ref="C21:C23" si="1">SUM(C20+D20)</f>
+        <f t="shared" ref="C21:C23" si="2">SUM(C20+D20)</f>
         <v>48</v>
       </c>
       <c r="D21" s="10"/>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="22" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D22" s="10"/>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="23" spans="3:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D23" s="10"/>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="29" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="31" spans="3:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="39" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
@@ -1467,10 +1467,10 @@
     </row>
     <row r="41" spans="3:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C41" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="6"/>
@@ -1513,14 +1513,14 @@
     </row>
     <row r="44" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="10">
-        <f t="shared" ref="C44:C45" si="2">SUM(C43+D43)</f>
+        <f t="shared" ref="C44:C45" si="3">SUM(C43+D43)</f>
         <v>2</v>
       </c>
       <c r="D44" s="10">
         <v>1</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -1529,14 +1529,14 @@
     </row>
     <row r="45" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D45" s="10">
         <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -1568,31 +1568,31 @@
         <v>1</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="10">
-        <f t="shared" ref="C48:C49" si="3">SUM(C47+D47)</f>
+        <f t="shared" ref="C48:C49" si="4">SUM(C47+D47)</f>
         <v>6</v>
       </c>
       <c r="D48" s="10">
         <v>1</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D49" s="10">
         <v>1</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="3:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1672,30 +1672,30 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
     </row>
     <row r="63" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
     </row>
     <row r="64" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
     <row r="65" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -1746,14 +1746,14 @@
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
     </row>
     <row r="76" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1776,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40CF7EA-5204-48CB-824A-D6BD78A6AA07}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1784,12 +1784,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
